--- a/Story/3 - Psyche Deepdive/11 - Final Steersmanship/Final Steersmanship.xlsx
+++ b/Story/3 - Psyche Deepdive/11 - Final Steersmanship/Final Steersmanship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\Documents\GitHub\morimens-volunteer-coordination\Story\3 - Psyche Deepdive\11 - Final Steersmanship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9999160-A830-4333-A1F2-23DE9EB1A868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B8158D-08C9-42E6-9CF1-7CD1A60C9F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="17325" windowHeight="16305" xr2:uid="{AC6FAA92-426B-4D95-9355-4B5E0039F5D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AC6FAA92-426B-4D95-9355-4B5E0039F5D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Corposant Deepdive" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4747" uniqueCount="3452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4747" uniqueCount="3453">
   <si>
     <t>September 14, Inn \nUnder the company of the Keeper, I spent the most relaxed day of my life. \nHowever, the memories from the dream of the previous day linger like a shadow, with muscle spasms, bone cracks, and flesh burning, every breath is excruciatingly painful. \nBut I do not regret my choice. As long as the ship is still afloat, I must fulfill my responsibilities; it has been this way in the past, and it is the same now. \nBecause from the moment I became a navigator, I had already determined my end. \n—Corposant</t>
   </si>
@@ -10162,9 +10162,6 @@
     <t>これは歓声と笑い声に満ちた航海のはずだった。\n豪華な客船で、大西洋を巡り、勝利の品を運び、人々が海を征服する野望を乗せていた。\nしかし、海には自身の気性がある。\n理解を超えた恐怖と未知の前で、人間は結局蟻のように小さい。</t>
   </si>
   <si>
-    <t>이것은 본래 웃음소리가 가득한 항해여야 했다.\n호화로운 유람선이 대서양을 항해하며, 전리품과 사람들의 바다 정복의 야망을 실었다.\n그러나 바다는 자신의 성격이 있다.\n이해할 수 없는 두려움과 미지의 것 앞에서, 인간은 결국 개미처럼 미미하다.</t>
-  </si>
-  <si>
     <t>นี่ควรจะเป็นการเดินทางที่เต็มไปด้วยเสียงหัวเราะและรอยยิ้ม\nเรือหรูหราล่องลอยในมหาสมุทรแอตแลนติก นำโดยสินค้าชนะเลิศ และโดยความทะเยอทะยานของมนุษย์ที่จะพิชิตมหาสมุทร\nแต่มหาสมุทรมันมีอารมณ์ของมันเอง\nต่อหน้าความน่ากลัวและความไม่รู้ที่เกินไป มนุษย์ ในท้ายที่สุดมันเล็กน้อยเหมือนมด</t>
   </si>
   <si>
@@ -10409,13 +10406,19 @@
   </si>
   <si>
     <t>Stage_81207_Name</t>
+  </si>
+  <si>
+    <t>원래 웃음소리가 가득한 항해여야 했다.\n대서양을 가로지르는 호화로운 유람선은 전리품과 사람들의 야망을 실었다.\n하지만 바다는 자신만의 성격이 있었다.\n이해를 초월하는 두려움과 미지 앞에서, 인간은 결국 한낱 개미처럼 미미하다.</t>
+  </si>
+  <si>
+    <t>헌신의 제사</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10437,6 +10440,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -10462,10 +10471,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10479,9 +10489,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{11208746-FF3D-4681-BD9A-A7A53643357A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10696,69 +10710,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0847D13-72A6-42A4-A86C-1E7EA795CCE1}">
   <dimension ref="A1:S357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3388</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>3389</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3390</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3391</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3392</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3393</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>3394</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3395</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>3396</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>3397</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>3398</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>3399</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>3400</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>3401</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>3402</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>3403</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>3404</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>3405</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>3406</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10795,7 +10807,7 @@
       <c r="L2" t="s">
         <v>3357</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>3358</v>
       </c>
       <c r="N2" t="e">
@@ -10851,34 +10863,34 @@
       <c r="L3" t="s">
         <v>3368</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>3451</v>
+      </c>
+      <c r="N3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q3" t="s">
         <v>3369</v>
       </c>
-      <c r="N3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>3370</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>3371</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3372</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B4" t="s">
         <v>3373</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3374</v>
       </c>
       <c r="C4" t="s">
         <v>3351</v>
@@ -10890,61 +10902,61 @@
         <v>3352</v>
       </c>
       <c r="F4" t="s">
+        <v>3374</v>
+      </c>
+      <c r="H4" t="s">
         <v>3375</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>3376</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>3377</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>3378</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>3379</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="5" t="s">
         <v>3380</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>3381</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>3382</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>3383</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>3384</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>3385</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>3386</v>
-      </c>
-      <c r="S4" t="s">
-        <v>3387</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B6" t="s">
         <v>3407</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>3408</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3409</v>
       </c>
       <c r="D6">
         <v>1872</v>
       </c>
       <c r="E6" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="F6" t="s">
         <v>3353</v>
@@ -10988,58 +11000,58 @@
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B7" t="s">
         <v>3411</v>
       </c>
-      <c r="B7" t="s">
-        <v>3412</v>
-      </c>
       <c r="C7" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D7">
         <v>1872</v>
       </c>
       <c r="E7" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="F7" t="s">
         <v>3364</v>
       </c>
       <c r="H7" t="s">
+        <v>3412</v>
+      </c>
+      <c r="I7" t="s">
         <v>3413</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>3414</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="s">
         <v>3415</v>
       </c>
-      <c r="K7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>3416</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" t="s">
         <v>3417</v>
       </c>
-      <c r="N7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>3418</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>3419</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3420</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16750,19 +16762,19 @@
     </row>
     <row r="107" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="B107" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="C107" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D107">
         <v>1873</v>
       </c>
       <c r="E107" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="F107" t="s">
         <v>3353</v>
@@ -16771,7 +16783,7 @@
         <v>2374</v>
       </c>
       <c r="I107" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="J107" t="s">
         <v>2373</v>
@@ -16782,8 +16794,8 @@
       <c r="L107" t="s">
         <v>2371</v>
       </c>
-      <c r="M107" t="s">
-        <v>2370</v>
+      <c r="M107" s="5" t="s">
+        <v>3452</v>
       </c>
       <c r="N107" t="s">
         <v>2369</v>
@@ -16806,40 +16818,40 @@
     </row>
     <row r="108" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="B108" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="C108" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D108">
         <v>1873</v>
       </c>
       <c r="E108" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="F108" t="s">
         <v>3364</v>
       </c>
       <c r="H108" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="I108" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="J108" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="K108" t="e">
         <v>#N/A</v>
       </c>
       <c r="L108" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="M108" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="N108" t="e">
         <v>#N/A</v>
@@ -16851,13 +16863,13 @@
         <v>#N/A</v>
       </c>
       <c r="Q108" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="R108" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="S108" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="109" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22022,19 +22034,19 @@
     </row>
     <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="B199" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="C199" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D199">
         <v>1874</v>
       </c>
       <c r="E199" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="F199" t="s">
         <v>3353</v>
@@ -22043,7 +22055,7 @@
         <v>1496</v>
       </c>
       <c r="I199" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="J199" t="s">
         <v>1494</v>
@@ -22078,19 +22090,19 @@
     </row>
     <row r="200" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="B200" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="C200" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D200">
         <v>1874</v>
       </c>
       <c r="E200" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="F200" t="s">
         <v>3364</v>
@@ -27798,19 +27810,19 @@
     </row>
     <row r="300" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="B300" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="C300" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D300">
         <v>1875</v>
       </c>
       <c r="E300" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="F300" t="s">
         <v>3353</v>
@@ -27819,7 +27831,7 @@
         <v>541</v>
       </c>
       <c r="I300" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="J300" t="s">
         <v>539</v>
@@ -27854,40 +27866,40 @@
     </row>
     <row r="301" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="B301" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="C301" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D301">
         <v>1875</v>
       </c>
       <c r="E301" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="F301" t="s">
         <v>3364</v>
       </c>
       <c r="H301" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="I301" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="J301" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="K301" t="e">
         <v>#N/A</v>
       </c>
       <c r="L301" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="M301" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="N301" t="e">
         <v>#N/A</v>
@@ -27899,13 +27911,13 @@
         <v>#N/A</v>
       </c>
       <c r="Q301" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="R301" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="S301" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="302" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
